--- a/frog_and_fly/resultados/suj1_2025-04-20.xlsx
+++ b/frog_and_fly/resultados/suj1_2025-04-20.xlsx
@@ -393,10 +393,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/frog_and_fly/resultados/suj1_2025-04-20.xlsx
+++ b/frog_and_fly/resultados/suj1_2025-04-20.xlsx
@@ -14,12 +14,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Pontos</t>
   </si>
   <si>
     <t>n_moscas</t>
+  </si>
+  <si>
+    <t>precisao</t>
+  </si>
+  <si>
+    <t>100.0%</t>
   </si>
 </sst>
 </file>
@@ -377,26 +383,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
-      </c>
-      <c r="B2">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
